--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW19.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW19.xlsx
@@ -3219,37 +3219,37 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="n">
-        <v>2.9812908841398555</v>
+        <v>0.0</v>
       </c>
       <c r="C83" t="n">
-        <v>2.9577867546510075</v>
+        <v>0.0</v>
       </c>
       <c r="D83" t="n">
-        <v>2.54510343808209</v>
+        <v>0.0</v>
       </c>
       <c r="E83" t="n">
-        <v>3.2047551406664225</v>
+        <v>0.0</v>
       </c>
       <c r="F83" t="n">
-        <v>2.5639178701844267</v>
+        <v>0.0</v>
       </c>
       <c r="G83" t="n">
-        <v>3.0351096359715846</v>
+        <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>2.614439289881148</v>
+        <v>0.0</v>
       </c>
       <c r="I83" t="n">
-        <v>2.975929259323443</v>
+        <v>0.0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.9813926823679346</v>
+        <v>0.0</v>
       </c>
       <c r="K83" t="n">
-        <v>2.9812908841398555</v>
+        <v>0.0</v>
       </c>
       <c r="L83" t="n">
-        <v>2.9577867546510075</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6851749972056991</v>
+        <v>0.0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7106915290815979</v>
+        <v>0.0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7167469587462411</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8355225577024238</v>
+        <v>0.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8359733498315713</v>
+        <v>0.0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.8114337902086928</v>
+        <v>0.0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8261460579778667</v>
+        <v>0.0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8738246661809457</v>
+        <v>0.0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.8248983511385681</v>
+        <v>0.0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.6851749972056991</v>
+        <v>0.0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.7106915290815979</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6.591025544086157</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>7.7195948850813245</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>7.7147730645833</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>7.55746803529123</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>7.298735094143936</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>7.5308208171329465</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>6.821103213890017</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>7.695661543095756</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>7.649240568625064</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>6.591025544086157</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>7.7195948850813245</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.1722006647828014</v>
+        <v>0.0</v>
       </c>
       <c r="C104" t="n">
-        <v>3.7153708269695622</v>
+        <v>0.0</v>
       </c>
       <c r="D104" t="n">
-        <v>3.713050128606768</v>
+        <v>0.0</v>
       </c>
       <c r="E104" t="n">
-        <v>3.637340648320848</v>
+        <v>0.0</v>
       </c>
       <c r="F104" t="n">
-        <v>3.5128148363028564</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>3.6245155845138717</v>
+        <v>0.0</v>
       </c>
       <c r="H104" t="n">
-        <v>3.2829349552542366</v>
+        <v>0.0</v>
       </c>
       <c r="I104" t="n">
-        <v>3.7038519270883117</v>
+        <v>0.0</v>
       </c>
       <c r="J104" t="n">
-        <v>3.68150993416311</v>
+        <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>3.1722006647828014</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
-        <v>3.7153708269695622</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>0.26310079027513544</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.23723105352163432</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.24943190832725928</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.25016530744399945</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.2527631936686529</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.2519969021720882</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.24338416195417675</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2132505769732536</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.26310079027513544</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.23723105352163432</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>3.5284708907363216</v>
+        <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>3.6880474604204276</v>
+        <v>0.0</v>
       </c>
       <c r="D187" t="n">
-        <v>3.6314253399008027</v>
+        <v>0.0</v>
       </c>
       <c r="E187" t="n">
-        <v>3.127913415146452</v>
+        <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>3.2805303445770764</v>
+        <v>0.0</v>
       </c>
       <c r="G187" t="n">
-        <v>3.633322854531852</v>
+        <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>3.719892446132543</v>
+        <v>0.0</v>
       </c>
       <c r="I187" t="n">
-        <v>3.705132790099119</v>
+        <v>0.0</v>
       </c>
       <c r="J187" t="n">
-        <v>3.160551377066705</v>
+        <v>0.0</v>
       </c>
       <c r="K187" t="n">
-        <v>3.5284708907363216</v>
+        <v>0.0</v>
       </c>
       <c r="L187" t="n">
-        <v>3.6880474604204276</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>3.3730021119250995</v>
+        <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>2.7498921474169573</v>
+        <v>0.0</v>
       </c>
       <c r="D199" t="n">
-        <v>3.0310699506892496</v>
+        <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>2.8477693153455768</v>
+        <v>0.0</v>
       </c>
       <c r="F199" t="n">
-        <v>3.1129625767224685</v>
+        <v>0.0</v>
       </c>
       <c r="G199" t="n">
-        <v>2.680397637374813</v>
+        <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>3.126896988867771</v>
+        <v>0.0</v>
       </c>
       <c r="I199" t="n">
-        <v>2.784170976533343</v>
+        <v>0.0</v>
       </c>
       <c r="J199" t="n">
-        <v>3.2496391355748795</v>
+        <v>0.0</v>
       </c>
       <c r="K199" t="n">
-        <v>3.3730021119250995</v>
+        <v>0.0</v>
       </c>
       <c r="L199" t="n">
-        <v>2.7498921474169573</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>0.48671262953679073</v>
+        <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3968</v>
+        <v>0.0</v>
       </c>
       <c r="D200" t="n">
-        <v>0.43737299208743413</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.4109233394446241</v>
+        <v>0.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4491898169910961</v>
+        <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>0.3867721806869316</v>
+        <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>0.45120050484459967</v>
+        <v>0.0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.4017463174059966</v>
+        <v>0.0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.46891177539720286</v>
+        <v>0.0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.48671262953679073</v>
+        <v>0.0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3968</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.6965785791874104</v>
+        <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>1.6469060458291764</v>
+        <v>0.0</v>
       </c>
       <c r="D213" t="n">
-        <v>1.6598109842139757</v>
+        <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>1.4268119990202317</v>
+        <v>0.0</v>
       </c>
       <c r="F213" t="n">
-        <v>1.676063723471438</v>
+        <v>0.0</v>
       </c>
       <c r="G213" t="n">
-        <v>1.4407956752766766</v>
+        <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>1.7073141351745376</v>
+        <v>0.0</v>
       </c>
       <c r="I213" t="n">
-        <v>1.6832089393339986</v>
+        <v>0.0</v>
       </c>
       <c r="J213" t="n">
-        <v>1.6052987420737443</v>
+        <v>0.0</v>
       </c>
       <c r="K213" t="n">
-        <v>1.6965785791874104</v>
+        <v>0.0</v>
       </c>
       <c r="L213" t="n">
-        <v>1.6469060458291764</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
@@ -9641,37 +9641,37 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.4773058397245665</v>
+        <v>-0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.5143885685763543</v>
+        <v>-0.0</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.49000114653210713</v>
+        <v>-0.0</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.4813333333333334</v>
+        <v>-0.0</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.4153047206129123</v>
+        <v>-0.0</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.4264477644522795</v>
+        <v>-0.0</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.4828257264283209</v>
+        <v>-0.0</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.46763860233669874</v>
+        <v>-0.0</v>
       </c>
       <c r="J252" t="n">
-        <v>-0.4665625702717057</v>
+        <v>-0.0</v>
       </c>
       <c r="K252" t="n">
-        <v>-0.4773058397245665</v>
+        <v>-0.0</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.5143885685763543</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="253">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>0.681300819379721</v>
+        <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>0.8125961299741663</v>
+        <v>0.0</v>
       </c>
       <c r="D283" t="n">
-        <v>0.7761164926189875</v>
+        <v>0.0</v>
       </c>
       <c r="E283" t="n">
-        <v>0.8101333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F283" t="n">
-        <v>0.703386283227143</v>
+        <v>0.0</v>
       </c>
       <c r="G283" t="n">
-        <v>0.8592731441256765</v>
+        <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>0.7942107438387319</v>
+        <v>0.0</v>
       </c>
       <c r="I283" t="n">
-        <v>0.6780020955617626</v>
+        <v>0.0</v>
       </c>
       <c r="J283" t="n">
-        <v>0.671880072268042</v>
+        <v>0.0</v>
       </c>
       <c r="K283" t="n">
-        <v>0.681300819379721</v>
+        <v>0.0</v>
       </c>
       <c r="L283" t="n">
-        <v>0.8125961299741663</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>0.23006554914343122</v>
+        <v>0.0</v>
       </c>
       <c r="C299" t="n">
-        <v>0.238633396689249</v>
+        <v>0.0</v>
       </c>
       <c r="D299" t="n">
-        <v>0.2406666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E299" t="n">
-        <v>0.2805487019279306</v>
+        <v>0.0</v>
       </c>
       <c r="F299" t="n">
-        <v>0.28070006725673685</v>
+        <v>0.0</v>
       </c>
       <c r="G299" t="n">
-        <v>0.2724602638730757</v>
+        <v>0.0</v>
       </c>
       <c r="H299" t="n">
-        <v>0.27740029521873794</v>
+        <v>0.0</v>
       </c>
       <c r="I299" t="n">
-        <v>0.2934096435215377</v>
+        <v>0.0</v>
       </c>
       <c r="J299" t="n">
-        <v>0.2769813447895426</v>
+        <v>0.0</v>
       </c>
       <c r="K299" t="n">
-        <v>0.23006554914343122</v>
+        <v>0.0</v>
       </c>
       <c r="L299" t="n">
-        <v>0.238633396689249</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
@@ -14087,37 +14087,37 @@
         <v>368.0</v>
       </c>
       <c r="B369" t="n">
-        <v>0.8096916705418401</v>
+        <v>0.0</v>
       </c>
       <c r="C369" t="n">
-        <v>0.7769870449126944</v>
+        <v>0.0</v>
       </c>
       <c r="D369" t="n">
-        <v>0.6745179684390475</v>
+        <v>0.0</v>
       </c>
       <c r="E369" t="n">
-        <v>0.7827973474139293</v>
+        <v>0.0</v>
       </c>
       <c r="F369" t="n">
-        <v>0.7678205960875184</v>
+        <v>0.0</v>
       </c>
       <c r="G369" t="n">
-        <v>0.6926948664961982</v>
+        <v>0.0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.653583096345608</v>
+        <v>0.0</v>
       </c>
       <c r="I369" t="n">
-        <v>0.7683408651863121</v>
+        <v>0.0</v>
       </c>
       <c r="J369" t="n">
-        <v>0.7683752218078312</v>
+        <v>0.0</v>
       </c>
       <c r="K369" t="n">
-        <v>0.8096916705418401</v>
+        <v>0.0</v>
       </c>
       <c r="L369" t="n">
-        <v>0.7769870449126944</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="370">
@@ -14163,37 +14163,37 @@
         <v>370.0</v>
       </c>
       <c r="B371" t="n">
-        <v>3.0080761343239293</v>
+        <v>0.0</v>
       </c>
       <c r="C371" t="n">
-        <v>2.8865755589614612</v>
+        <v>0.0</v>
       </c>
       <c r="D371" t="n">
-        <v>2.5058938814034812</v>
+        <v>0.0</v>
       </c>
       <c r="E371" t="n">
-        <v>2.9081613463951776</v>
+        <v>0.0</v>
       </c>
       <c r="F371" t="n">
-        <v>2.8525213912446787</v>
+        <v>0.0</v>
       </c>
       <c r="G371" t="n">
-        <v>2.5734226645576466</v>
+        <v>0.0</v>
       </c>
       <c r="H371" t="n">
-        <v>2.4281189808944292</v>
+        <v>0.0</v>
       </c>
       <c r="I371" t="n">
-        <v>2.8544542369394605</v>
+        <v>0.0</v>
       </c>
       <c r="J371" t="n">
-        <v>2.854581874825594</v>
+        <v>0.0</v>
       </c>
       <c r="K371" t="n">
-        <v>3.0080761343239293</v>
+        <v>0.0</v>
       </c>
       <c r="L371" t="n">
-        <v>2.8865755589614612</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -15721,37 +15721,37 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="n">
-        <v>0.4437370448322441</v>
+        <v>0.0</v>
       </c>
       <c r="C412" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D412" t="n">
-        <v>0.46406958940614906</v>
+        <v>0.0</v>
       </c>
       <c r="E412" t="n">
-        <v>0.3954641955998516</v>
+        <v>0.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.44616115492557706</v>
+        <v>0.0</v>
       </c>
       <c r="G412" t="n">
-        <v>0.46140895570232826</v>
+        <v>0.0</v>
       </c>
       <c r="H412" t="n">
-        <v>0.4881983803675113</v>
+        <v>0.0</v>
       </c>
       <c r="I412" t="n">
-        <v>0.4324162882399568</v>
+        <v>0.0</v>
       </c>
       <c r="J412" t="n">
-        <v>0.4011718107876591</v>
+        <v>0.0</v>
       </c>
       <c r="K412" t="n">
-        <v>0.4437370448322441</v>
+        <v>0.0</v>
       </c>
       <c r="L412" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="413">
@@ -16899,37 +16899,37 @@
         <v>442.0</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.24412808061559035</v>
+        <v>-0.0</v>
       </c>
       <c r="C443" t="n">
-        <v>-0.22113219485487806</v>
+        <v>-0.0</v>
       </c>
       <c r="D443" t="n">
-        <v>-0.24066666666666664</v>
+        <v>-0.0</v>
       </c>
       <c r="E443" t="n">
-        <v>-0.2365960911491928</v>
+        <v>-0.0</v>
       </c>
       <c r="F443" t="n">
-        <v>-0.2140805598662591</v>
+        <v>-0.0</v>
       </c>
       <c r="G443" t="n">
-        <v>-0.24806600322070965</v>
+        <v>-0.0</v>
       </c>
       <c r="H443" t="n">
-        <v>-0.24990111981083715</v>
+        <v>-0.0</v>
       </c>
       <c r="I443" t="n">
-        <v>-0.22256797373229525</v>
+        <v>-0.0</v>
       </c>
       <c r="J443" t="n">
-        <v>-0.2457147995671247</v>
+        <v>-0.0</v>
       </c>
       <c r="K443" t="n">
-        <v>-0.24412808061559035</v>
+        <v>-0.0</v>
       </c>
       <c r="L443" t="n">
-        <v>-0.22113219485487806</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="444">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>0.39280882324292815</v>
+        <v>0.0</v>
       </c>
       <c r="C480" t="n">
-        <v>0.38055955116933327</v>
+        <v>0.0</v>
       </c>
       <c r="D480" t="n">
-        <v>0.3297806874498552</v>
+        <v>0.0</v>
       </c>
       <c r="E480" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F480" t="n">
-        <v>0.4026106653042305</v>
+        <v>0.0</v>
       </c>
       <c r="G480" t="n">
-        <v>0.3390405601423973</v>
+        <v>0.0</v>
       </c>
       <c r="H480" t="n">
-        <v>0.3897916937163198</v>
+        <v>0.0</v>
       </c>
       <c r="I480" t="n">
-        <v>0.3996967157195393</v>
+        <v>0.0</v>
       </c>
       <c r="J480" t="n">
-        <v>0.40358609996576544</v>
+        <v>0.0</v>
       </c>
       <c r="K480" t="n">
-        <v>0.39280882324292815</v>
+        <v>0.0</v>
       </c>
       <c r="L480" t="n">
-        <v>0.38055955116933327</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="481">
@@ -19103,37 +19103,37 @@
         <v>500.0</v>
       </c>
       <c r="B501" t="n">
-        <v>2.6678735245205516</v>
+        <v>0.0</v>
       </c>
       <c r="C501" t="n">
-        <v>2.875145303507686</v>
+        <v>0.0</v>
       </c>
       <c r="D501" t="n">
-        <v>2.7388332113683966</v>
+        <v>0.0</v>
       </c>
       <c r="E501" t="n">
-        <v>2.690384968284167</v>
+        <v>0.0</v>
       </c>
       <c r="F501" t="n">
-        <v>2.3213218371075515</v>
+        <v>0.0</v>
       </c>
       <c r="G501" t="n">
-        <v>2.383605239419944</v>
+        <v>0.0</v>
       </c>
       <c r="H501" t="n">
-        <v>2.698726613608666</v>
+        <v>0.0</v>
       </c>
       <c r="I501" t="n">
-        <v>2.613839057443361</v>
+        <v>0.0</v>
       </c>
       <c r="J501" t="n">
-        <v>2.607824638136473</v>
+        <v>0.0</v>
       </c>
       <c r="K501" t="n">
-        <v>2.6678735245205516</v>
+        <v>0.0</v>
       </c>
       <c r="L501" t="n">
-        <v>2.875145303507686</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="502">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>10.809905309768611</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>10.59823922166128</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>9.514461622090154</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>9.092502463211732</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>8.872444952007235</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>10.558766259288717</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>10.117880960167607</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>10.60309507933969</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>9.171796164346176</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>10.809905309768611</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>10.59823922166128</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>3.4313662858315297</v>
+        <v>0.0</v>
       </c>
       <c r="C549" t="n">
-        <v>3.559153446144414</v>
+        <v>0.0</v>
       </c>
       <c r="D549" t="n">
-        <v>3.5894791253974807</v>
+        <v>0.0</v>
       </c>
       <c r="E549" t="n">
-        <v>4.184309041112189</v>
+        <v>0.0</v>
       </c>
       <c r="F549" t="n">
-        <v>4.186566614608279</v>
+        <v>0.0</v>
       </c>
       <c r="G549" t="n">
-        <v>4.063672145454411</v>
+        <v>0.0</v>
       </c>
       <c r="H549" t="n">
-        <v>4.137351395014233</v>
+        <v>0.0</v>
       </c>
       <c r="I549" t="n">
-        <v>4.376126553784802</v>
+        <v>0.0</v>
       </c>
       <c r="J549" t="n">
-        <v>4.131102861135398</v>
+        <v>0.0</v>
       </c>
       <c r="K549" t="n">
-        <v>3.4313662858315297</v>
+        <v>0.0</v>
       </c>
       <c r="L549" t="n">
-        <v>3.559153446144414</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="550">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>3.470387189881978</v>
+        <v>0.0</v>
       </c>
       <c r="C559" t="n">
-        <v>4.139174825266555</v>
+        <v>0.0</v>
       </c>
       <c r="D559" t="n">
-        <v>3.953356075944909</v>
+        <v>0.0</v>
       </c>
       <c r="E559" t="n">
-        <v>4.1266299146037255</v>
+        <v>0.0</v>
       </c>
       <c r="F559" t="n">
-        <v>3.5828853825136484</v>
+        <v>0.0</v>
       </c>
       <c r="G559" t="n">
-        <v>4.376936629400035</v>
+        <v>0.0</v>
       </c>
       <c r="H559" t="n">
-        <v>4.0455239639869</v>
+        <v>0.0</v>
       </c>
       <c r="I559" t="n">
-        <v>3.4535842614909273</v>
+        <v>0.0</v>
       </c>
       <c r="J559" t="n">
-        <v>3.422400105226401</v>
+        <v>0.0</v>
       </c>
       <c r="K559" t="n">
-        <v>3.470387189881978</v>
+        <v>0.0</v>
       </c>
       <c r="L559" t="n">
-        <v>4.139174825266555</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="560">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>11.204031434291027</v>
+        <v>0.0</v>
       </c>
       <c r="C568" t="n">
-        <v>13.314023237468955</v>
+        <v>0.0</v>
       </c>
       <c r="D568" t="n">
-        <v>13.251295215283188</v>
+        <v>0.0</v>
       </c>
       <c r="E568" t="n">
-        <v>11.049436896453395</v>
+        <v>0.0</v>
       </c>
       <c r="F568" t="n">
-        <v>13.75818028817796</v>
+        <v>0.0</v>
       </c>
       <c r="G568" t="n">
-        <v>12.412106723454425</v>
+        <v>0.0</v>
       </c>
       <c r="H568" t="n">
-        <v>13.094691756609468</v>
+        <v>0.0</v>
       </c>
       <c r="I568" t="n">
-        <v>13.27310284966415</v>
+        <v>0.0</v>
       </c>
       <c r="J568" t="n">
-        <v>12.843037797647716</v>
+        <v>0.0</v>
       </c>
       <c r="K568" t="n">
-        <v>11.204031434291027</v>
+        <v>0.0</v>
       </c>
       <c r="L568" t="n">
-        <v>13.314023237468955</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="569">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>0.24832824209439974</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>0.22493671797328377</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>0.244807275399664</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>0.2406666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>0.2177637613998347</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>0.25233391565545515</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>0.25420060495934643</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>0.22639719906077782</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>0.24994226014156096</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>0.24832824209439974</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>0.22493671797328377</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>5.081318143180658</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>4.922863330698452</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>4.265995291488677</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>5.0794792262638575</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>5.208113354885678</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>4.385779665800091</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>5.042288991856325</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>5.170418924371707</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>5.220731436634009</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>5.081318143180658</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>4.922863330698452</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>0.5205678989395073</v>
+        <v>0.0</v>
       </c>
       <c r="C609" t="n">
-        <v>0.5610117331411969</v>
+        <v>0.0</v>
       </c>
       <c r="D609" t="n">
-        <v>0.5344138832983147</v>
+        <v>0.0</v>
       </c>
       <c r="E609" t="n">
-        <v>0.5249604366195783</v>
+        <v>0.0</v>
       </c>
       <c r="F609" t="n">
-        <v>0.4529471207682681</v>
+        <v>0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>0.4651001481072957</v>
+        <v>0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>0.5265880972790368</v>
+        <v>0.0</v>
       </c>
       <c r="I609" t="n">
-        <v>0.5100244422358227</v>
+        <v>0.0</v>
       </c>
       <c r="J609" t="n">
-        <v>0.5088508807483114</v>
+        <v>0.0</v>
       </c>
       <c r="K609" t="n">
-        <v>0.5205678989395073</v>
+        <v>0.0</v>
       </c>
       <c r="L609" t="n">
-        <v>0.5610117331411969</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="610">
